--- a/CAID Resources Database.xlsx
+++ b/CAID Resources Database.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="289">
   <si>
     <t>Name</t>
   </si>
@@ -215,7 +215,7 @@
     </r>
   </si>
   <si>
-    <t>Food, Healthcare, Transit, Housing, Money</t>
+    <t>Food, Healthcare, Transit, Housing, Income</t>
   </si>
   <si>
     <t>all ages, near homeless, low-income, in crisis</t>
@@ -347,7 +347,7 @@
     </r>
   </si>
   <si>
-    <t>Food, Money, Clothes</t>
+    <t>Food, Income, Clothes</t>
   </si>
   <si>
     <t>all ages, disaster victims</t>
@@ -545,7 +545,7 @@
     <t>9:30 AM - 5:00 PM</t>
   </si>
   <si>
-    <t>Money</t>
+    <t>Income</t>
   </si>
   <si>
     <t>all ages, cancer patients</t>
@@ -755,111 +755,388 @@
     <t>The Home Free program reunites youth with their family or legal guardian or helps them get to an alternative living arrangement (ALA), such as a community-based transitional living program, through a free bus ticket. This program provides: Transportation for runaway youth, Help find housing Youth must initiate the process by calling NRS’ hotline and speaking with NRS Crisis Services team about their situation. Youth will also be screened for signs of human trafficking. At the request of a youth, NRS can help identify and access a local safe place, such as a police station, runaway and homeless youth service provider, shelter, other local youth service provider, or a hospital emergency room. Once they are in a safe place, the Home Free application process can begin.</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">Service Types (Taken from </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>findhelp.org</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>)</t>
-    </r>
+    <t>Housing Assistance Corporation</t>
+  </si>
+  <si>
+    <t>460 West Main Street, Hyannis, MA 02601</t>
+  </si>
+  <si>
+    <t>Housing, Income</t>
+  </si>
+  <si>
+    <t>low-income individuals and families</t>
+  </si>
+  <si>
+    <t>Housing Assistance Corporation provides comprehensive housing services including help finding housing, help paying for housing, housing advice, maintenance and repairs, residential housing, and temporary shelter services for residents of Cape Cod.</t>
+  </si>
+  <si>
+    <t>Dial-A-Ride Transportation (DART)</t>
+  </si>
+  <si>
+    <t>Cape Cod Regional Transit Authority (CCRTA)</t>
+  </si>
+  <si>
+    <t>181 Iyannough Road, Hyannis, MA 02601</t>
+  </si>
+  <si>
+    <t>6:00 AM - 9:00 PM</t>
+  </si>
+  <si>
+    <t>Transit</t>
+  </si>
+  <si>
+    <t>students, seniors, persons with disabilities</t>
+  </si>
+  <si>
+    <t>Dial-A-Ride Transportation (DART) is a door-to-door, ride by appointment transportation service for any purpose. DART offers discounted rates: Fixed Route buses - Students pay $1.50, seniors and persons with disabilities pay $1.00. Passengers with disabilities can purchase a monthly pass for $30. CCRTA buses are accessible to people who use wheelchairs and others with limited mobility.</t>
+  </si>
+  <si>
+    <t>Cape Cod Times Neighbors Fund</t>
+  </si>
+  <si>
+    <t>319 Main Street, Hyannis, MA 02601</t>
+  </si>
+  <si>
+    <t>9:00 AM - 5:00 PM</t>
+  </si>
+  <si>
+    <t>Income, Food, Housing</t>
+  </si>
+  <si>
+    <t>Cape and Island residents experiencing temporary financial hardships</t>
+  </si>
+  <si>
+    <t>The Cape Cod Times Neighbors Fund provides assistance to Cape and Island residents experiencing temporary financial hardships. They help with most basic needs including food, housing, medical, utilities, transportation, home repairs, moving, and childcare. Financial assistance is paid to verified vendors on behalf of clients. Intake Specialists also provide household budgeting and resource referrals to all callers.</t>
+  </si>
+  <si>
+    <t>Homeless Not Helpless</t>
+  </si>
+  <si>
+    <t>8:00 AM - 4:00 PM</t>
+  </si>
+  <si>
+    <t>homeless individuals</t>
+  </si>
+  <si>
+    <t>Homeless Not Helpless offers affordable, supportive housing, educational training and other tools to help homeless individuals become productive members of society. The organization is actively managed by men and women who were formerly homeless themselves. Currently has four homes - two for women and two for men. Goal is to help residents move back into their communities as productive members.</t>
+  </si>
+  <si>
+    <t>St. Joseph's Shelter</t>
+  </si>
+  <si>
+    <t>Catholic Social Services Diocese of Fall River (CSS)</t>
+  </si>
+  <si>
+    <t>77 Winter Street, Barnstable, MA 02601</t>
+  </si>
+  <si>
+    <t>men and women experiencing homelessness</t>
+  </si>
+  <si>
+    <t>St. Joseph's Shelter provides emergency shelter for men and women experiencing homelessness. Services include shelter and support. Open 24 hours a day, 7 days a week.</t>
+  </si>
+  <si>
+    <t>CACCI - SNAP Application Assistance</t>
+  </si>
+  <si>
+    <t>Community Action Committee of Cape Cod &amp; Islands (CACCI)</t>
+  </si>
+  <si>
+    <t>Community Action Committee of Cape Cod &amp; Islands assists each client through the process of SNAP (food stamps) eligibility and application. Provides help filling out SNAP applications and help finding food resources.</t>
+  </si>
+  <si>
+    <t>CACCI - Utility Assistance Program</t>
+  </si>
+  <si>
+    <t>Income, Housing</t>
+  </si>
+  <si>
+    <t>The Utility Information and Referral program helps low-income individuals and families manage their utility costs in a sustainable way. Provides advocacy and guidance on how to address fuel bills and avoid shut-offs, and information and referrals for other fuel assistance resources. Promotes self-sufficiency by helping with utility management.</t>
+  </si>
+  <si>
+    <t>CACCI - VITA Tax Assistance</t>
+  </si>
+  <si>
+    <t>low-income residents</t>
+  </si>
+  <si>
+    <t>The Volunteer Income Tax Assistance (VITA) program provides free tax preparation and filing services for low income residents by certified tax counselors. Helps locals address tax needs and promotes self-sufficiency and independence.</t>
+  </si>
+  <si>
+    <t>CACCI - Child Care Network</t>
+  </si>
+  <si>
+    <t>Childrens, Education</t>
+  </si>
+  <si>
+    <t>families with children</t>
+  </si>
+  <si>
+    <t>Community Action Committee's Child Care Network (CCN) offers free resources and referral services to help families identify and access high quality, affordable early education and out-of-school time programs. Provides information and referrals, professional development, subsidy management (vouchers), and advocacy.</t>
+  </si>
+  <si>
+    <t>CACCI - Safe Harbor Family Shelter</t>
+  </si>
+  <si>
+    <t>women and their children who are homeless due to domestic violence</t>
+  </si>
+  <si>
+    <t>Safe Harbor is a safe and secure family shelter for Emergency Assistance for eligible women and their children who are homeless due to domestic violence. Serves families residing in Barnstable County.</t>
+  </si>
+  <si>
+    <t>CACCI - Immigration Resource Center</t>
+  </si>
+  <si>
+    <t>Language, Education</t>
+  </si>
+  <si>
+    <t>immigrants</t>
+  </si>
+  <si>
+    <t>CACCI's Immigration Resource Center offers services to immigrants in need of assistance including: citizen preparation training, referrals to community resource organizations, advice on benefit eligibility requirements, and information on becoming a U.S citizen. Call 508-771-1727 for more information.</t>
+  </si>
+  <si>
+    <t>Cape Cod Family Resource Center</t>
+  </si>
+  <si>
+    <t>3 Main Street Mercantile Unit 7, Orleans, MA 02653</t>
+  </si>
+  <si>
+    <t>10:00 AM - 7:00 PM</t>
+  </si>
+  <si>
+    <t>9:00 AM - 12:00 PM</t>
+  </si>
+  <si>
+    <t>families, parents</t>
+  </si>
+  <si>
+    <t>The Cape Cod Family Resource Center helps navigate the often confusing landscapes of programs and access assistance available in your community. Family Support Workers help access needed assistance and provide information and referrals to programs and services. Provides parents with resources and education to better understand their child. Offers classes, one-on-one support, and peer support for parents during the critical early years of child development.</t>
+  </si>
+  <si>
+    <t>Barnstable Housing Authority - Public Housing</t>
+  </si>
+  <si>
+    <t>Barnstable Housing Authority</t>
+  </si>
+  <si>
+    <t>677 Main Street, Hyannis, MA 02601</t>
+  </si>
+  <si>
+    <t>low-income families, elderly, persons with disabilities, U.S. citizens or eligible immigration status</t>
+  </si>
+  <si>
+    <t>Public housing provides decent and safe rental housing for eligible low-income families, the elderly, and persons with disabilities. Public housing comes in all sizes and types, from scattered single family houses to high-rise apartments for elderly families. Eligibility based on annual gross income, family status, and citizenship. Housing Authority will check references and verify documentation. Documents required: Birth Certificate, Tax Return, Direct Verification from employer.</t>
+  </si>
+  <si>
+    <t>Cape Cod Childrens Place - Early Education</t>
+  </si>
+  <si>
+    <t>Cape Cod Childrens Place (CCCP)</t>
+  </si>
+  <si>
+    <t>10 Ballwick Road, Eastham, MA 02642</t>
+  </si>
+  <si>
+    <t>7:00 AM - 5:30 PM</t>
+  </si>
+  <si>
+    <t>families with young children</t>
+  </si>
+  <si>
+    <t>Early Childhood Education &amp; Care program provides high quality and enriching programs to support the crucial early learning years. Builds a strong foundation in social emotional development of children to support expectations of life long learning. Offers early childhood education services.</t>
+  </si>
+  <si>
+    <t>Community Health Center - Primary Care</t>
+  </si>
+  <si>
+    <t>Community Health Center of Cape Cod</t>
+  </si>
+  <si>
+    <t>48 Route 134, South Dennis, MA 02660</t>
+  </si>
+  <si>
+    <t>Healthcare, Health</t>
+  </si>
+  <si>
+    <t>Community Health Center is a Patient Centered Medical Home providing comprehensive primary care services for adults, children and families. Services include: medical care, walk-in urgent care, regular check-ups, physicals, health screenings, immunizations, school physicals and screenings, diagnostic testing, and patient education. Specially trained staff assist with insurance applications for MassHealth and federal health plans. Help anybody in need of health care, regardless of ability to pay. Languages: English, Portuguese, Spanish, Interpretation Services Available. Call 508-477-7090 to schedule.</t>
+  </si>
+  <si>
+    <t>Community Health Center - Dental Care</t>
+  </si>
+  <si>
+    <t>30 Jan Sebastian Drive Unit 240, Mashpee, MA 02649</t>
+  </si>
+  <si>
+    <t>children and adults</t>
+  </si>
+  <si>
+    <t>Community Health Center has a full service dental clinic and oral health program for children and adult patients. Dental providers and staff work closely with other care teams to coordinate dental needs with medical and behavioral health care. Services include: annual exams, cleanings, x-rays, fillings, extractions, restorative procedures (fillings, crowns, dentures), and limited root canal services. Call 508-477-7090 to schedule.</t>
+  </si>
+  <si>
+    <t>Community Health Center - Pharmacy</t>
+  </si>
+  <si>
+    <t>30 Jan Sebastian Drive Unit 140, Mashpee, MA 02649</t>
+  </si>
+  <si>
+    <t>8:00 AM - 6:00 PM</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Pharmacy services include: new prescriptions, refill prescriptions, mobileRx app prescription management, fast resolution of medication related issues, vaccines, and friendly staff to answer medication questions. Discount programs available to help reduce cost of medications not covered by insurance. Pharmacists are a valuable resource to ensure understanding of medications, possible interactions, and can find alternatives to reduce cost. Offers temporary sliding-scale fee for CHC patients whose insurance is not active yet (must be working with outreach staff). Call 508-477-7090 or email [email protected]</t>
+  </si>
+  <si>
+    <t>Cape Cod HELP Medical Equipment Loan</t>
+  </si>
+  <si>
+    <t>Cape Cod HELP</t>
+  </si>
+  <si>
+    <t>605 Falmouth Road (Rear), Centerville, MA 02632</t>
+  </si>
+  <si>
+    <t>all community members in need</t>
+  </si>
+  <si>
+    <t>IRS approved 501(c)(3) non-profit organization that loans (not rents) donated medical equipment to people in need. Accepts requests for equipment as well as donations of equipment and cash to support operational expenses. Open for walk-in equipment requests and donations on Saturdays at the rear/side of the Fraternal Lodge building in Centerville. Operated by 100% non-paid volunteers. Chartered and supported by the 20th &amp; 21st Masonic Districts of Massachusetts but serves all community members in need on Cape Cod.</t>
+  </si>
+  <si>
+    <t>Service Types (18 Taken from SSM)</t>
   </si>
   <si>
     <t>Operation Hours</t>
   </si>
   <si>
+    <t>Assistance with finances and financial education</t>
+  </si>
+  <si>
+    <t>12-hour format EST</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>Sourcing work opportunities</t>
+  </si>
+  <si>
+    <t>Blank = Closed</t>
+  </si>
+  <si>
+    <t>Financial housing support and temporary housing</t>
+  </si>
+  <si>
     <t>Free food and financial assistance specifically for food</t>
   </si>
   <si>
-    <t>Blank = Closed</t>
-  </si>
-  <si>
-    <t>Financial housing support and temporary housing</t>
-  </si>
-  <si>
-    <t>12-hour format EST</t>
-  </si>
-  <si>
-    <t>Clothes</t>
-  </si>
-  <si>
-    <t>Free clothing</t>
-  </si>
-  <si>
-    <t>Transit</t>
+    <t>Childcare</t>
+  </si>
+  <si>
+    <t>Assistance with children and mothers in need</t>
+  </si>
+  <si>
+    <t>Children's Education</t>
+  </si>
+  <si>
+    <t>Assistance with childrens education</t>
+  </si>
+  <si>
+    <t>Adult Education</t>
+  </si>
+  <si>
+    <t>Assistance with adult education</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Assistance with legal problems and counesling</t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t>Health Care</t>
+  </si>
+  <si>
+    <t>Clincal advisory</t>
+  </si>
+  <si>
+    <t>findhelp.org</t>
+  </si>
+  <si>
+    <t>Find Help verifies resources monthly and updates with new resources very frequently.</t>
+  </si>
+  <si>
+    <t>Life Skills</t>
+  </si>
+  <si>
+    <t>Teachings in ability to perform daily actions and routines</t>
+  </si>
+  <si>
+    <t>SSM</t>
+  </si>
+  <si>
+    <t>Resource to calculate SSM score and determine patient needs</t>
+  </si>
+  <si>
+    <t>Mental Health</t>
+  </si>
+  <si>
+    <t>Counselling and assistance in patients mental state</t>
+  </si>
+  <si>
+    <t>Substance Abuse</t>
+  </si>
+  <si>
+    <t>Group addiction counselling and community addiction outreach</t>
+  </si>
+  <si>
+    <t>Mobility</t>
   </si>
   <si>
     <t>Financial assistance with fuel, delivery service, or transit service</t>
   </si>
   <si>
-    <t>Sources</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>Clincal advisory</t>
-  </si>
-  <si>
-    <t>findhelp.org</t>
-  </si>
-  <si>
-    <t>Find Help verifies resources monthly and updates with new resources very frequently.</t>
-  </si>
-  <si>
-    <t>Assistance with finances and financial education</t>
-  </si>
-  <si>
-    <t>SSM</t>
-  </si>
-  <si>
-    <t>Resource to calculate SSM score and determine patient needs</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Assistance with adult and childrens education</t>
-  </si>
-  <si>
-    <t>Work</t>
-  </si>
-  <si>
-    <t>Sourcing work opportunities</t>
-  </si>
-  <si>
-    <t>Legal</t>
-  </si>
-  <si>
-    <t>Assistance with legal problems and counesling</t>
-  </si>
-  <si>
-    <t>Assistance with children and mothers in need</t>
+    <t>Family Relations</t>
+  </si>
+  <si>
+    <t>Healthy family dynamic and assistance in general wellbeing</t>
+  </si>
+  <si>
+    <t>Community Involvement</t>
+  </si>
+  <si>
+    <t>Providing patient with ability to reach out to others like themself</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Insurance of patients wellbeing and comfortability</t>
+  </si>
+  <si>
+    <t>Parenting Skills</t>
+  </si>
+  <si>
+    <t>Counselling and assistance in patients parenting skills</t>
+  </si>
+  <si>
+    <t>Credit History</t>
+  </si>
+  <si>
+    <t>Assistance and guidance in credit management</t>
+  </si>
+  <si>
+    <t>Additional Service Types</t>
   </si>
   <si>
     <t>Language</t>
   </si>
   <si>
     <t>Services available in multiple languages and language education</t>
-  </si>
-  <si>
-    <t>Addiction</t>
-  </si>
-  <si>
-    <t>Group addiction counselling and community addiction outreach</t>
-  </si>
-  <si>
-    <t>Care</t>
-  </si>
-  <si>
-    <t>General Assistance</t>
   </si>
   <si>
     <t>Outer Cape Locations</t>
@@ -882,7 +1159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -906,6 +1183,10 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF072035"/>
@@ -938,7 +1219,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -954,10 +1235,16 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1193,6 +1480,7 @@
     <col customWidth="1" min="8" max="8" width="14.88"/>
     <col customWidth="1" min="9" max="9" width="16.5"/>
     <col customWidth="1" min="10" max="10" width="14.63"/>
+    <col customWidth="1" min="11" max="11" width="43.63"/>
     <col customWidth="1" min="12" max="12" width="10.38"/>
     <col customWidth="1" min="13" max="13" width="17.25"/>
     <col customWidth="1" min="14" max="14" width="33.75"/>
@@ -2272,7 +2560,713 @@
         <v>156</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L33" s="6"/>
+      <c r="M33" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J35" s="6"/>
+      <c r="K35" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L36" s="6"/>
+      <c r="M36" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L37" s="6"/>
+      <c r="M37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="K38" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J39" s="6"/>
+      <c r="K39" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L39" s="6"/>
+      <c r="M39" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J40" s="6"/>
+      <c r="K40" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J41" s="6"/>
+      <c r="K41" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L41" s="6"/>
+      <c r="M41" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J44" s="6"/>
+      <c r="K44" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L44" s="6"/>
+      <c r="M44" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="J45" s="6"/>
+      <c r="K45" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J46" s="6"/>
+      <c r="K46" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="6"/>
+      <c r="K47" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="K48" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L48" s="6"/>
+      <c r="M48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="N32:S32"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="N34:S34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="N42:S42"/>
+    <mergeCell ref="N43:S43"/>
+    <mergeCell ref="N44:S44"/>
+    <mergeCell ref="N45:S45"/>
+    <mergeCell ref="N46:S46"/>
+    <mergeCell ref="N47:S47"/>
+    <mergeCell ref="N48:S48"/>
+    <mergeCell ref="N49:S49"/>
+    <mergeCell ref="N35:S35"/>
+    <mergeCell ref="N36:S36"/>
+    <mergeCell ref="N37:S37"/>
+    <mergeCell ref="N38:S38"/>
+    <mergeCell ref="N39:S39"/>
+    <mergeCell ref="N40:S40"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="K49:L49"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
     <hyperlink r:id="rId2" ref="C2"/>
@@ -2354,170 +3348,233 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>157</v>
+      <c r="A1" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>242</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>160</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>245</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>164</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>171</v>
+        <v>249</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>115</v>
+        <v>251</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>256</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>258</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>262</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>181</v>
+        <v>263</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>183</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>185</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>186</v>
+        <v>270</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>187</v>
+        <v>271</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>188</v>
+        <v>274</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>189</v>
+        <v>276</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>190</v>
+        <v>278</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>191</v>
+      <c r="A19" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A1"/>
-    <hyperlink r:id="rId2" ref="D6"/>
-    <hyperlink r:id="rId3" ref="D7"/>
+    <hyperlink r:id="rId1" ref="D10"/>
+    <hyperlink r:id="rId2" ref="D11"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>